--- a/biology/Zoologie/Elasmosauridae/Elasmosauridae.xlsx
+++ b/biology/Zoologie/Elasmosauridae/Elasmosauridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cimoliasauridae, Cimoliosauridae
 Les Elasmosauridae forment une famille fossile de reptiles marins de l'ordre des plésiosauriens. Ils avaient le long cou des Plesiosauroidea (les plésiosaures "vrais") et ont survécu du début du Jurassique à la fin du Crétacé. 
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Elasmosauridae vient de elasmos (ελασμος) « fine plaque », en référence aux plaques de leur pelvis, et  sauros (σαυρος) « lézard ».
 </t>
@@ -544,7 +558,9 @@
           <t>Dimensions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premiers Elasmosauridae étaient petits, environ 3 mètres. À la fin du Crétacé, ils pouvaient atteindre 14 mètres, comme l'Elasmosaurus. Leur cou était le plus grand de tous les Plesiosauroidea avec environ 32 à 71 vertèbres cervicales.
 </t>
@@ -575,9 +591,11 @@
           <t>Familles et genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database                   (1 déc. 2014)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database                   (1 déc. 2014) :
 famille Alzadasauridae :
 genre Alzadasaurus
 genre Aphrosaurus
@@ -645,9 +663,11 @@
           <t>Cladogramme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme ci-dessous ne montre que les relations internes au sein des Elasmosauridae, sur la base des résultats d'O'Gorman et al. (2015) qui ont mené l'analyse phylogénétique la plus complète à ce jour (2022) en se concentrant sur les élasmosauridés[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme ci-dessous ne montre que les relations internes au sein des Elasmosauridae, sur la base des résultats d'O'Gorman et al. (2015) qui ont mené l'analyse phylogénétique la plus complète à ce jour (2022) en se concentrant sur les élasmosauridés.
 Pour mémoire : l'espèce citée dans cette liste, Pliosaurus gigas (ancien nom) est syn. de Elasmosaurus gigas et de Plesiosaurus gigas. Le genre Pliosaurus n'appartient pas aux Plesiosauroidea mais bien aux Pliosauroidea.
 </t>
         </is>
